--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3954.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3954.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.263585519821833</v>
+        <v>0.8102935552597046</v>
       </c>
       <c r="B1">
-        <v>2.420277935350331</v>
+        <v>1.554062724113464</v>
       </c>
       <c r="C1">
-        <v>6.594170434314398</v>
+        <v>4.043524742126465</v>
       </c>
       <c r="D1">
-        <v>2.926510721172626</v>
+        <v>1.287571907043457</v>
       </c>
       <c r="E1">
-        <v>1.346055916255034</v>
+        <v>0.7911099791526794</v>
       </c>
     </row>
   </sheetData>
